--- a/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
+++ b/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E840F5-E1FD-4B78-867A-5A45ACCB7B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757D56A-702E-4260-9D63-C0B0E09E92F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="525" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>TEL_SR_11</t>
   </si>
   <si>
-    <t>To validate the send after field using invalid data</t>
-  </si>
-  <si>
     <t>Days : @abc</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t xml:space="preserve">The did not allow user to type the non numerical characters </t>
-  </si>
-  <si>
-    <t>To validate the send after field using blank input</t>
   </si>
   <si>
     <t xml:space="preserve">Days : </t>
@@ -195,16 +189,10 @@
 • Press Plus Button </t>
   </si>
   <si>
-    <t xml:space="preserve">To validate the Plus button for send after days field </t>
-  </si>
-  <si>
     <t xml:space="preserve">The system should increase the days count </t>
   </si>
   <si>
     <t xml:space="preserve">The system increased the days count </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To validate the Minus button for send after days field </t>
   </si>
   <si>
     <t xml:space="preserve">• Login to System 
@@ -280,9 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">The system should show the all templates available to select </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system should showed the all templates available to select </t>
   </si>
   <si>
     <t>User should be able to select the templates from drop down</t>
@@ -663,9 +648,6 @@
 The subsequent SR will follow the updated SR interval of 15 days. This places the next SR on 20 January (5 January + 15 days).</t>
   </si>
   <si>
-    <t xml:space="preserve">To validate the send after ((days) field using valid data </t>
-  </si>
-  <si>
     <t xml:space="preserve">To validate that service reminder is triggered as per the date of the second visit if the user visits before the first service reminder is triggered </t>
   </si>
   <si>
@@ -673,6 +655,24 @@
   </si>
   <si>
     <t xml:space="preserve">PASSWORD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To validate the send after (Days) field using valid data </t>
+  </si>
+  <si>
+    <t>To validate the send after (Days) field using invalid data</t>
+  </si>
+  <si>
+    <t>To validate the  send after (Days) field using blank input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To validate the Plus button for  send after (Days) field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To validate the Minus button for send after (Days) field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should did not show the sms template  </t>
   </si>
 </sst>
 </file>
@@ -810,6 +810,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,12 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1154,7 @@
     <col min="3" max="3" width="14.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -1162,17 +1162,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1204,39 +1204,39 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1263,22 +1263,22 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1292,25 +1292,25 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I7" s="4">
         <v>45504</v>
@@ -1321,22 +1321,22 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1350,22 +1350,22 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1379,22 +1379,22 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -1408,22 +1408,22 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -1437,22 +1437,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -1466,22 +1466,22 @@
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
@@ -1495,9 +1495,9 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I14" s="4">
         <v>45504</v>
@@ -1524,9 +1524,9 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1536,10 +1536,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -1550,25 +1550,25 @@
     </row>
     <row r="16" spans="1:9" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -1579,25 +1579,25 @@
     </row>
     <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
@@ -1608,25 +1608,25 @@
     </row>
     <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>12</v>
@@ -1637,25 +1637,25 @@
     </row>
     <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>12</v>
@@ -1666,22 +1666,22 @@
     </row>
     <row r="20" spans="1:9" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1689,12 +1689,12 @@
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1704,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1712,12 +1712,12 @@
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1727,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1735,12 +1735,12 @@
     </row>
     <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1750,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1758,22 +1758,22 @@
     </row>
     <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1781,25 +1781,25 @@
     </row>
     <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>12</v>
@@ -1810,25 +1810,25 @@
     </row>
     <row r="26" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>12</v>
@@ -1839,22 +1839,22 @@
     </row>
     <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1862,22 +1862,22 @@
     </row>
     <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1885,22 +1885,22 @@
     </row>
     <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1908,22 +1908,22 @@
     </row>
     <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1931,22 +1931,22 @@
     </row>
     <row r="31" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1954,22 +1954,22 @@
     </row>
     <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1977,22 +1977,22 @@
     </row>
     <row r="33" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2000,22 +2000,22 @@
     </row>
     <row r="34" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2023,22 +2023,22 @@
     </row>
     <row r="35" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2046,22 +2046,22 @@
     </row>
     <row r="36" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2069,22 +2069,22 @@
     </row>
     <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2092,22 +2092,22 @@
     </row>
     <row r="38" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2115,22 +2115,22 @@
     </row>
     <row r="39" spans="1:9" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2138,22 +2138,22 @@
     </row>
     <row r="40" spans="1:9" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2208,10 +2208,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2224,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,31 +2238,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <f>B5/A5*100</f>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="E5" s="5">
         <f>C5/A5*100</f>
-        <v>0</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
+++ b/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5757D56A-702E-4260-9D63-C0B0E09E92F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAECED81-AD48-4947-98AE-51EC1B0061FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="525" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Task Creation " sheetId="1" r:id="rId1"/>
+    <sheet name="Service Reminder " sheetId="1" r:id="rId1"/>
     <sheet name="Testing Account Details " sheetId="3" r:id="rId2"/>
     <sheet name="Defect Report" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Creation '!$H$1:$H$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Service Reminder '!$H$1:$H$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="186">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -381,9 +381,6 @@
     <t xml:space="preserve">The customer should receive the service reminder message at 11 am IST who is added by the business owner and service reminder is set </t>
   </si>
   <si>
-    <t xml:space="preserve">The business owner should be able to update visit reminder by clicking the 3 dots in customer list </t>
-  </si>
-  <si>
     <t>TEL_SR_22</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
     <t xml:space="preserve">The system should showed message "Customer Data updated." </t>
   </si>
   <si>
-    <t>The business owner should be able to update visit reminder by Existing customer form, where BO (Business Owner) checks the "is the customer visiting for new service?" checkbox</t>
-  </si>
-  <si>
     <t xml:space="preserve">• Login to System 
 • Go to Review Request
 • Go Existing Customer
@@ -484,29 +478,7 @@
     Second Service Reminder Triggered: 20 August (10 days after 10 August).</t>
   </si>
   <si>
-    <t>Customer Addition Date: 31 July.
-    SR Interval (Send After Days): 10 days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The customer should receive the service reminder on 10 August at 11.00 am IST after the interval set by the business owner </t>
-  </si>
-  <si>
     <t>The customer should receive the service reminder on 10 August at 11.00 am IST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Addition Date: 31 July.
-    SR Interval (Send After Days): 10 days.
-User Visits: 9 August </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The service reminder should triggered based on the latest updated visit date of the second service. 
-That is on 19th August 11 am IST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Addition Date: 31 July.
-    SR Interval (Send After Days): 10 days.
-Updated Service Interval : 20 Days 
-Service Interval Update Date : 1 August </t>
   </si>
   <si>
     <t xml:space="preserve">Updated Service Interval : 20 Days 
@@ -674,12 +646,79 @@
   <si>
     <t xml:space="preserve">The system should did not show the sms template  </t>
   </si>
+  <si>
+    <t xml:space="preserve">The business owner should be able to update service reminder by clicking the 3 dots in customer list </t>
+  </si>
+  <si>
+    <t>The business owner should be able to update service reminder by Existing customer form, where BO (Business Owner) checks the "is the customer visiting for new service?" checkbox</t>
+  </si>
+  <si>
+    <t>Customer Addition Date: 1 August
+    SR Interval (Send After Days): 1 day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer should receive the service reminder on 2 August at 11.00 am IST after the interval set by the business owner </t>
+  </si>
+  <si>
+    <t>Account : itsvishwa23@gmail.com
+Customer : ritikchaudhari0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_Details </t>
+  </si>
+  <si>
+    <t>The customer should receive the service reminder on 5 August at 11.00 am IST</t>
+  </si>
+  <si>
+    <t>Customer Addition Date: 1 August 
+    SR Interval (Send After Days): 5 days.
+Deactivation Date : 3 August
+Reactivation Date : 4 August</t>
+  </si>
+  <si>
+    <t>Account : ritikchaudhari0@gmail.com 
+Customer : itsvishwa23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Addition Date: 1 August 
+    SR Interval (Send After Days): 2 days.
+User Visits: 2  August </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service reminder should triggered based on the latest updated visit date of the second service. 
+That is on 4th August 11 am IST </t>
+  </si>
+  <si>
+    <t>Account : famysola@cyclelove.cc
+Cutomer :
+mryashkale03@gmail.com</t>
+  </si>
+  <si>
+    <t>The customer should receive the service reminder on 02 August at 11.00 am IST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Addition Date: 1 August 
+    SR Interval (Send After Days): 1 days.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Addition Date: 1 August
+    SR Interval (Send After Days): 10 days.
+Updated Service Interval : 15 Days 
+Service Interval Update Date : 2 August </t>
+  </si>
+  <si>
+    <t>Account : 
+gywemo@teleg.eu
+Customer :
+samanhakim47@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,13 +743,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -744,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -787,13 +819,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,10 +871,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,6 +879,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1141,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,23 +1228,25 @@
     <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="10" max="10" width="25.109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,9 +1274,12 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="J2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="10"/>
@@ -1215,26 +1290,28 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
@@ -1257,13 +1334,16 @@
       <c r="I5" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -1286,13 +1366,16 @@
       <c r="I6" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -1315,13 +1398,16 @@
       <c r="I7" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>24</v>
@@ -1344,13 +1430,16 @@
       <c r="I8" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>24</v>
@@ -1373,8 +1462,11 @@
       <c r="I9" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1402,8 +1494,11 @@
       <c r="I10" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1431,8 +1526,11 @@
       <c r="I11" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1460,8 +1558,11 @@
       <c r="I12" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1489,8 +1590,11 @@
       <c r="I13" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1510,7 +1614,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>45</v>
@@ -1518,8 +1622,11 @@
       <c r="I14" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1547,8 +1654,11 @@
       <c r="I15" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -1576,8 +1686,11 @@
       <c r="I16" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
@@ -1605,8 +1718,11 @@
       <c r="I17" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
@@ -1634,8 +1750,11 @@
       <c r="I18" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -1663,8 +1782,11 @@
       <c r="I19" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -1678,16 +1800,19 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J20" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
@@ -1709,8 +1834,11 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
@@ -1732,8 +1860,11 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -1755,8 +1886,11 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
@@ -1770,36 +1904,39 @@
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J24" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>104</v>
+      <c r="B25" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>12</v>
@@ -1807,28 +1944,31 @@
       <c r="I25" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="J25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>12</v>
@@ -1836,36 +1976,44 @@
       <c r="I26" s="4">
         <v>45504</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>24</v>
@@ -1874,21 +2022,26 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I28" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>24</v>
@@ -1897,21 +2050,26 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I29" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>24</v>
@@ -1920,21 +2078,24 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I30" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>24</v>
@@ -1943,44 +2104,50 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I31" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="I32" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -1989,21 +2156,24 @@
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="I33" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -2012,21 +2182,24 @@
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="I34" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>24</v>
@@ -2035,21 +2208,24 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="I35" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>24</v>
@@ -2058,21 +2234,24 @@
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="I36" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>24</v>
@@ -2081,21 +2260,24 @@
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="I37" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>24</v>
@@ -2104,21 +2286,24 @@
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>24</v>
@@ -2127,21 +2312,24 @@
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>24</v>
@@ -2150,21 +2338,24 @@
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="4">
+        <v>45504</v>
+      </c>
+      <c r="J40" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H40" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}"/>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2208,10 +2399,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2238,31 +2429,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">

--- a/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
+++ b/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAECED81-AD48-4947-98AE-51EC1B0061FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CD9A8-F85E-4BB5-96CF-0171C6D20C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="525" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="187">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -712,6 +712,9 @@
 gywemo@teleg.eu
 Customer :
 samanhakim47@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer  received the service reminder on 2 August at 11.00 am IST after the interval set by the business owner </t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -1805,9 +1808,15 @@
       <c r="F20" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45506</v>
+      </c>
       <c r="J20" s="4" t="s">
         <v>174</v>
       </c>

--- a/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
+++ b/SERVICE_REMINDER_FUNCTIONALITY_TEST_CASES.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CD9A8-F85E-4BB5-96CF-0171C6D20C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31958117-539E-4B9B-9D15-56661AE10EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="525" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Service Reminder " sheetId="1" r:id="rId1"/>
-    <sheet name="Testing Account Details " sheetId="3" r:id="rId2"/>
-    <sheet name="Defect Report" sheetId="2" r:id="rId3"/>
+    <sheet name="Defect Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Testing Account Details " sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Service Reminder '!$H$1:$H$40</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -468,96 +468,19 @@
     <t>To validate that customer receives the second SR</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer Addition Date: 31 July.
-    SR Interval (Send After Days): 10 days.
-</t>
-  </si>
-  <si>
-    <t>The customer should receive the reminders as per following schedule Service Reminders
-    First Service Reminder Triggered: 10 August (10 days after 31 July).
-    Second Service Reminder Triggered: 20 August (10 days after 10 August).</t>
-  </si>
-  <si>
     <t>The customer should receive the service reminder on 10 August at 11.00 am IST</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated Service Interval : 20 Days 
-Service Interval Update Date : 1 August 
-Customer Addition Date :
-2 August </t>
-  </si>
-  <si>
-    <t>The customer should receive the service reminder on 22 August at 11.00 am IST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Addition Date :
-2 August 
-Recharge Date :
-10 August 
-Service Interval:
-10 Days </t>
-  </si>
-  <si>
-    <t>The customer should receive the service reminder on 31 August at 11.00 am IST</t>
-  </si>
-  <si>
     <t>Verify that the Service Reminder (SR) is triggered on the scheduled date if customer reactivation occurs before the upcoming SR scheduled date.</t>
   </si>
   <si>
-    <t>Customer Visit Date: 15 December
-SR Interval (Send After Days): 10 days
-Upcoming SR Scheduled Date: 25 December
-Deactivation Date: 16 December
-Reactivation Date: 20 December</t>
-  </si>
-  <si>
-    <t>The SR should be triggered on 25 December, as the reactivation occurred before the scheduled SR date. There should be no changes in the SR schedule due to the reactivation.</t>
-  </si>
-  <si>
     <t>Verify that the Service Reminder (SR) is triggered based on the previous SR interval if the customer is reactivated on or before the upcoming SR scheduled date and the SR interval is edited post-reactivation.</t>
   </si>
   <si>
-    <t>Customer Visit Date: 15 December
-Original SR Interval (Send After Days): 10 days
-Upcoming SR Scheduled Date: 25 December
-Deactivation Date: 16 December
-Reactivation Date: 20 December
-Edited SR Interval (Send After Days): 20 days (after reactivation)</t>
-  </si>
-  <si>
-    <t>•The SR should be triggered on 25 December based on the previous SR interval of 10 days.
-•The next SR should be triggered on 14 January based on the updated SR interval of 20 days.</t>
-  </si>
-  <si>
     <t>Verify that the next Service Reminder (SR) is triggered based on the previous SR interval if customer reactivation occurs after the upcoming SR scheduled date and the SR interval is edited post-reactivation.</t>
   </si>
   <si>
-    <t>Customer Visit Date: 15 December
-Original SR Interval (Send After Days): 10 days
-Upcoming SR Scheduled Date: 25 December
-Next SR Scheduled Date: 5 January
-Deactivation Date: 16 December
-Reactivation Date: 26 December
-Edited SR Interval (Send After Days): 20 days (after reactivation)</t>
-  </si>
-  <si>
-    <t>•The next SR should be triggered on 5 January based on the previous SR interval of 10 days.
-• The subsequent SR should be triggered on 25 January based on the updated SR interval of 20 days.</t>
-  </si>
-  <si>
     <t>Verify that the Service Reminder (SR) is skipped for the immediate upcoming cycle if customer reactivation occurs after the scheduled SR, and ensure that the next SR in the cycle is triggered as scheduled.</t>
-  </si>
-  <si>
-    <t>Customer Visit Date: 15 December
-Original SR Interval (Send After Days): 10 days
-Upcoming SR Scheduled Date: 25 December
-Next SR Scheduled Date: 5 January
-Deactivation Date: 16 December
-Reactivation Date: 26 December</t>
-  </si>
-  <si>
-    <t>•The SR scheduled for 25 December should be skipped because the customer was reactivated on 26 December, after this date.
-•The SR should be triggered on 5 January, following the original SR schedule.</t>
   </si>
   <si>
     <t>To verify that if a service reminder is paused and subsequently resumed before the upcoming SR scheduled date, and there is no change in the SR interval, the triggering of the SR is unaffected and proceeds as scheduled.</t>
@@ -715,6 +638,142 @@
   </si>
   <si>
     <t xml:space="preserve">The customer  received the service reminder on 2 August at 11.00 am IST after the interval set by the business owner </t>
+  </si>
+  <si>
+    <t>The customer did not receive the service reminder</t>
+  </si>
+  <si>
+    <t>The customer  received the service reminder on 5 August at 11.00 am IST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service reminder triggered based on the latest updated visit date of the second service. 
+That is on 4th August 11 am IST </t>
+  </si>
+  <si>
+    <t>The customer  received the service reminder on 02 August at 11.00 am IST</t>
+  </si>
+  <si>
+    <t>Account : 
+gywemo@teleg.eu
+Customer :
+itsvishwa23@gmail.com
+Whats App No:
+9604446004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Service Interval : 2 Days 
+Service Interval Update Date : 07 August 
+Customer Addition Date :
+08 August </t>
+  </si>
+  <si>
+    <t>The customer should receive the service reminder on 09 August at 11.00 am IST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Addition Date :
+8 August 
+Recharge Date :
+10 August 
+Service Interval:
+2 Days </t>
+  </si>
+  <si>
+    <t>The customer should receive the service reminder on 12 August at 11.00 am IST</t>
+  </si>
+  <si>
+    <t>Account : 
+vabizacy@cyclelove.cc
+Customer :
+itsvishwa23@gmail.com
+Whats App No:
+9604446004</t>
+  </si>
+  <si>
+    <t>Customer Addition Date: 8 August 
+    SR Interval (Send After Days): 2 days.</t>
+  </si>
+  <si>
+    <t>The customer should receive the reminders as per following schedule Service Reminders
+    First Service Reminder Triggered: 10 August (2 days after 8 August).
+    Second Service Reminder Triggered: 12 August (2 day days after 10 August).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer received the second SR </t>
+  </si>
+  <si>
+    <t>Customer Visit Date: 08 August
+SR Interval (Send After Days): 2 days
+Upcoming SR Scheduled Date: 10 August
+Deactivation Date: 09 August
+Reactivation Date: 10 August</t>
+  </si>
+  <si>
+    <t>The SR should be triggered on 10 August, as the reactivation occurred before the scheduled SR date. There should be no changes in the SR schedule due to the reactivation.</t>
+  </si>
+  <si>
+    <t>The  triggered on 10 August, as the reactivation occurred before the scheduled SR date. There should be no changes in the SR schedule due to the reactivation.</t>
+  </si>
+  <si>
+    <t>The customer received the service reminder on 12 August at 11.00 am IST</t>
+  </si>
+  <si>
+    <t>Customer Visit Date: 08 August
+Original SR Interval (Send After Days): 2 days
+Upcoming SR Scheduled Date: 10 August
+Deactivation Date: 09 August
+Reactivation Date: 10 August
+Edited SR Interval (Send After Days): 4 days (after reactivation)</t>
+  </si>
+  <si>
+    <t>Initial SR Trigger: The SR should be triggered on 10 August based on the original SR interval of 2 days.
+Next SR Trigger: After reactivation, the SR should be triggered on 14 August based on the updated SR interval of 4 days.</t>
+  </si>
+  <si>
+    <t>Account : itsvishwa23@gmail.com
+Customer : samanhakim47@gmail.com</t>
+  </si>
+  <si>
+    <t>Initial SR Trigger: The SR was triggered on 10 August, as expected based on the original SR interval of 2 days.
+Next SR Trigger: After reactivation, the SR was triggered on 14 August, as expected based on the updated SR interval of 4 days.</t>
+  </si>
+  <si>
+    <t>Customer Visit Date: 08 August
+Original SR Interval (Send After Days): 2 days
+Upcoming SR Scheduled Date: 10 August
+Next SR Scheduled Date: 12 August
+Deactivation Date: 09 August
+Reactivation Date: 10 August
+Edited SR Interval (Send After Days): 5 days (after reactivation)</t>
+  </si>
+  <si>
+    <t>Initial SR Trigger: The SR should be triggered on 12 August based on the original SR interval of 2 days.
+Subsequent SR Trigger: After reactivation, the SR should be triggered on 15 August based on the updated SR interval of 5 days.</t>
+  </si>
+  <si>
+    <t>Initial SR Trigger: The SR was triggered on 12 August, as expected based on the original SR interval of 2 days.
+Subsequent SR Trigger: After reactivation, the SR was triggered on 15 August, as expected based on the updated SR interval of 5 days.</t>
+  </si>
+  <si>
+    <t>Account : 
+itsvishwa23@gmail.com
+Customer :
+samanhakim47@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer Visit Date: 08 August
+Original SR Interval (Send After Days): 10 days
+Upcoming SR Scheduled Date: 18 August
+Next SR Scheduled Date: 28 August
+Deactivation Date: 09 August
+Reactivation Date: 10 August</t>
+  </si>
+  <si>
+    <t>Initial SR Trigger: The SR scheduled for 18 August should be skipped because the customer was reactivated on 10 August, after this date.
+Next SR Trigger: The SR should be triggered on 28 August, following the original SR schedule.</t>
+  </si>
+  <si>
+    <t>Initial SR Trigger: The SR scheduled for 18 August was skipped as expected because the customer was reactivated on 10 August.
+Next SR Trigger: The SR was triggered on 28 August as expected, following the original SR schedule.</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1314,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
@@ -1346,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -1378,7 +1437,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>24</v>
@@ -1410,7 +1469,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>24</v>
@@ -1442,7 +1501,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>24</v>
@@ -1617,7 +1676,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>45</v>
@@ -1803,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -1818,10 +1877,10 @@
         <v>45506</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
@@ -1840,14 +1899,18 @@
       <c r="F21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
@@ -1866,11 +1929,15 @@
       <c r="F22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1892,11 +1959,15 @@
       <c r="F23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1913,16 +1984,20 @@
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1930,7 +2005,7 @@
         <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>24</v>
@@ -1962,7 +2037,7 @@
         <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -1989,12 +2064,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
@@ -2003,18 +2078,22 @@
         <v>119</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I27" s="4">
         <v>45504</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -2031,18 +2110,22 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I28" s="4">
         <v>45504</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -2059,10 +2142,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2070,7 +2153,7 @@
         <v>45504</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -2087,17 +2170,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="4">
         <v>45504</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -2113,17 +2198,23 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I31" s="4">
         <v>45504</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -2139,24 +2230,30 @@
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I32" s="4">
         <v>45504</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -2165,24 +2262,30 @@
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I33" s="4">
         <v>45504</v>
       </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -2191,24 +2294,30 @@
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I34" s="4">
         <v>45504</v>
       </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+      <c r="J34" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>24</v>
@@ -2217,24 +2326,30 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I35" s="4">
         <v>45504</v>
       </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="J35" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>24</v>
@@ -2243,24 +2358,28 @@
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="4">
         <v>45504</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>24</v>
@@ -2269,10 +2388,10 @@
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2286,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>24</v>
@@ -2295,10 +2414,10 @@
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2312,7 +2431,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>24</v>
@@ -2321,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2338,7 +2457,7 @@
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>24</v>
@@ -2347,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2394,32 +2513,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C80AF1-8999-4701-B983-D621E337CB74}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD137C9-FD4B-4D03-A4E3-CD84364ADBBF}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2508,4 +2601,30 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C80AF1-8999-4701-B983-D621E337CB74}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>